--- a/docs/project_plan_gantt_chart.xlsx
+++ b/docs/project_plan_gantt_chart.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jackgedge/Library/Mobile Documents/com~apple~CloudDocs/Dev/data/msc/dissertation/iifo_data/lit_search_4/plan/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jackgedge/Library/Mobile Documents/com~apple~CloudDocs/Dev/data/msc/dissertation/iifo_data/lit_search_4/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C43A781-9F71-C84E-A140-A1D29076E329}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3A53767-EC19-E748-8090-6ED50EEB398A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="880" windowWidth="26120" windowHeight="15460" xr2:uid="{A81863E3-736B-48DE-8749-47C9CF9BE7DC}"/>
   </bookViews>
@@ -1034,7 +1034,7 @@
   <dimension ref="A1:AM94"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="6" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="X41" sqref="X41"/>
     </sheetView>
   </sheetViews>
@@ -1131,7 +1131,7 @@
       </c>
       <c r="C5" s="5">
         <f ca="1">TODAY()</f>
-        <v>45666</v>
+        <v>45694</v>
       </c>
       <c r="E5" s="10">
         <f>B3-WEEKDAY(project_start,3)+(display_week-1)*7</f>
